--- a/Results/property_id_weekdays/BG.xlsx
+++ b/Results/property_id_weekdays/BG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="20">
   <si>
     <t>Property_id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Channel</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
   <si>
     <t>room_count</t>
@@ -56,6 +59,21 @@
   </si>
   <si>
     <t>CORPORATES</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
 </sst>
 </file>
@@ -417,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,69 +472,75 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>42005</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>210000</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>210000</v>
+        <v>15000</v>
       </c>
       <c r="H2">
+        <v>15000</v>
+      </c>
+      <c r="I2">
         <v>52</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>42006</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>210000</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>210000</v>
+        <v>15000</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>15000</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -524,95 +548,104 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>42018</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>52500</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>52500</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I4">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>42018</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>52500</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>52500</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I5">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>42020</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -621,68 +654,74 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>42023</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>56250</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>56250</v>
+        <v>18750</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>18750</v>
       </c>
       <c r="I7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>42027</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -691,182 +730,197 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>42037</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>60000</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I9">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>42037</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>60000</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I10">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>42038</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>52500</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I11">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <v>42039</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>52500</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I12">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>42041</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>34000</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>17000</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -874,69 +928,75 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>42055</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>51500</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>51500</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>25750</v>
       </c>
       <c r="I14">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>42055</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>51500</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>51500</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>25750</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,69 +1004,75 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <v>42058</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>70000</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="I16">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>42061</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1080,37 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>42062</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>26250</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>26250</v>
       </c>
       <c r="H18">
-        <v>49</v>
+        <v>13125</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1049,60 +1118,66 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
         <v>42062</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>26250</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>26250</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13125</v>
       </c>
       <c r="I19">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2">
         <v>42065</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1111,33 +1186,36 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <v>42083</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1149,30 +1227,33 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
         <v>42083</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1184,30 +1265,33 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2">
         <v>42097</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1219,30 +1303,33 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <v>42180</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1254,30 +1341,33 @@
         <v>0</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>9</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2">
         <v>42181</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1289,30 +1379,33 @@
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>12</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2">
         <v>42186</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1321,42 +1414,45 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
         <v>42286</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1364,34 +1460,37 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2">
         <v>42289</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>20000</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>20000</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>20000</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1399,130 +1498,142 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
         <v>42317</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>45000</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="H29">
+        <v>15000</v>
+      </c>
+      <c r="I29">
         <v>24</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2">
         <v>42320</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>40000</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I30">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
         <v>42321</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>40000</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I31">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2">
         <v>42324</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1531,33 +1642,36 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
         <v>42325</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1566,42 +1680,45 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2">
         <v>42335</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>59500</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>59500</v>
+        <v>29750</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>29750</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1609,454 +1726,493 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2">
         <v>42352</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I35">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2">
         <v>42353</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
       </c>
       <c r="F36">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I36">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
         <v>42354</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
       </c>
       <c r="F37">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I37">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2">
         <v>42355</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I38">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="2">
         <v>42356</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I39">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2">
         <v>42359</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
       </c>
       <c r="F40">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I40">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
         <v>42360</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
       </c>
       <c r="F41">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I41">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2">
         <v>42361</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
       </c>
       <c r="F42">
-        <v>206250</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I42">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
         <v>42362</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>281250</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>281250</v>
+        <v>34615.38461538462</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>17307.69230769231</v>
       </c>
       <c r="I43">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2">
         <v>42363</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>281250</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>281250</v>
+        <v>34615.38461538462</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>17307.69230769231</v>
       </c>
       <c r="I44">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2">
         <v>42362</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>281250</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>281250</v>
+        <v>34615.38461538462</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>17307.69230769231</v>
       </c>
       <c r="I45">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2">
         <v>42363</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>281250</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>281250</v>
+        <v>34615.38461538462</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>17307.69230769231</v>
       </c>
       <c r="I46">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2">
         <v>42366</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
       </c>
       <c r="F47">
-        <v>127500</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>127500</v>
+        <v>42500</v>
       </c>
       <c r="H47">
-        <v>67</v>
+        <v>21250</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2064,34 +2220,37 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2">
         <v>42367</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
       </c>
       <c r="F48">
-        <v>127500</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>127500</v>
+        <v>42500</v>
       </c>
       <c r="H48">
-        <v>61</v>
+        <v>21250</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2099,34 +2258,37 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2">
         <v>42366</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
       </c>
       <c r="F49">
-        <v>127500</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>127500</v>
+        <v>42500</v>
       </c>
       <c r="H49">
-        <v>67</v>
+        <v>21250</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2134,34 +2296,37 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2">
         <v>42367</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
       </c>
       <c r="F50">
-        <v>127500</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>127500</v>
+        <v>42500</v>
       </c>
       <c r="H50">
-        <v>61</v>
+        <v>21250</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2169,34 +2334,37 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2">
         <v>42368</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
       </c>
       <c r="F51">
-        <v>63750</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>63750</v>
+        <v>21250</v>
       </c>
       <c r="H51">
-        <v>60</v>
+        <v>21250</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2204,74 +2372,83 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2">
         <v>42369</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
       </c>
       <c r="F52">
-        <v>128250</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>128250</v>
+        <v>36750</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>18375</v>
       </c>
       <c r="I52">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2">
         <v>42369</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>128250</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>128250</v>
+        <v>36750</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>18375</v>
       </c>
       <c r="I53">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>0</v>
       </c>
     </row>
